--- a/Data/Entities/OpenNGS/OpenNGS.Dialog.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Dialog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2FDE52-1A78-4428-8A28-7C47D9E9FB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="4" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="OpenNGS.Dialog.Data" sheetId="2" r:id="rId3"/>
     <sheet name="OpenNGS.Dialog.Service" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -49,6 +43,9 @@
     <t>TableType</t>
   </si>
   <si>
+    <t>OpenNGS.Dialog.Data</t>
+  </si>
+  <si>
     <t>DialogList</t>
   </si>
   <si>
@@ -70,260 +67,13 @@
     <t>对话信息</t>
   </si>
   <si>
-    <t>DialogChoice</t>
-  </si>
-  <si>
-    <t>选项信息</t>
-  </si>
-  <si>
-    <t>DIALOG_CHOICE_CONDITION_TYPE</t>
-  </si>
-  <si>
-    <t>Enum</t>
-  </si>
-  <si>
-    <t>选择条件</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>DIALOG_TYPE</t>
-  </si>
-  <si>
-    <t>对话类型</t>
-  </si>
-  <si>
-    <t>LoadDialogRsp</t>
-  </si>
-  <si>
-    <t>加载对话返回值</t>
-  </si>
-  <si>
-    <t>CS;Client</t>
-  </si>
-  <si>
-    <t>ChoiceRep</t>
-  </si>
-  <si>
-    <t>选中选项</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>DIALOG_CHOICE_CONDITION_TYPE_NONE</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>无条件</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>DIALOG_CHOICE_CONDITION_TYPE_PLAYER_LEVEL</t>
-  </si>
-  <si>
-    <t>玩家等级</t>
-  </si>
-  <si>
-    <t>DIALOG_CHOICE_CONDITION_TYPE_PLAYER_INVENTORY</t>
-  </si>
-  <si>
-    <t>玩家背包中的物品</t>
-  </si>
-  <si>
-    <t>DIALOG_CHOICE_CONDITION_TYPE_PLAYER_QUEST_PROGRESS</t>
-  </si>
-  <si>
-    <t>玩家任务进度</t>
-  </si>
-  <si>
-    <t>DIALOG_CHOICE_CONDITION_TYPE_TIME_OF_DAY</t>
-  </si>
-  <si>
-    <t>游戏内的时间</t>
-  </si>
-  <si>
-    <t>DIALOG_CHOICE_CONDITION_TYPE_LOCATION</t>
-  </si>
-  <si>
-    <t>玩家所在位置</t>
-  </si>
-  <si>
-    <t>DIALOG_CHOICE_CONDITION_TYPE_PREVIOUS_CHOICE</t>
-  </si>
-  <si>
-    <t>之前的选择</t>
-  </si>
-  <si>
-    <t>DIALOG_TYPE_NORMAL</t>
-  </si>
-  <si>
-    <t>普通对话</t>
-  </si>
-  <si>
-    <t>DIALOG_TYPE_EVENT</t>
-  </si>
-  <si>
-    <t>事件对话</t>
-  </si>
-  <si>
-    <t>DIALOG_TYPE_QUEST</t>
-  </si>
-  <si>
-    <t>任务对话</t>
-  </si>
-  <si>
-    <t>DialogID</t>
-  </si>
-  <si>
-    <t>对话ID</t>
-  </si>
-  <si>
-    <t>DialogTalkIDs</t>
-  </si>
-  <si>
-    <t>uint32[]</t>
-  </si>
-  <si>
-    <t>对话索引</t>
-  </si>
-  <si>
-    <t>DisplayType</t>
-  </si>
-  <si>
-    <t>对话显示类型</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>DialogTalkID</t>
-  </si>
-  <si>
-    <t>对话索引ID</t>
-  </si>
-  <si>
-    <t>NGSText</t>
-  </si>
-  <si>
-    <t>发言人</t>
-  </si>
-  <si>
-    <t>AvatarLeft</t>
-  </si>
-  <si>
-    <t>左头像</t>
-  </si>
-  <si>
-    <t>AvatarRight</t>
-  </si>
-  <si>
-    <t>右头像</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>对话内容</t>
-  </si>
-  <si>
-    <t>IsEnd</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>是否对话结束</t>
-  </si>
-  <si>
-    <t>ChoiceIDs</t>
-  </si>
-  <si>
-    <t>选项ID</t>
-  </si>
-  <si>
-    <t>ChoiceCount</t>
-  </si>
-  <si>
-    <t>选择数量</t>
-  </si>
-  <si>
-    <t>AudioFiles</t>
-  </si>
-  <si>
-    <t>声音文件</t>
-  </si>
-  <si>
-    <t>DialogChoiceID</t>
-  </si>
-  <si>
-    <t>DialogChoiceContent</t>
-  </si>
-  <si>
-    <t>选项内容</t>
-  </si>
-  <si>
-    <t>NextDialogIndex</t>
-  </si>
-  <si>
-    <t>选项跳转的下一个对话索引</t>
-  </si>
-  <si>
-    <t>QuestGroupID</t>
-  </si>
-  <si>
-    <t>任务组ID</t>
-  </si>
-  <si>
-    <t>IsSelected</t>
-  </si>
-  <si>
-    <t>是否选中</t>
-  </si>
-  <si>
-    <t>SelectChoiceIDs</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
-    <t>HistoryRsp</t>
-  </si>
-  <si>
-    <t>HistoryList</t>
-  </si>
-  <si>
-    <t>HistoryItemRsp[]</t>
-  </si>
-  <si>
-    <t>HistoryItemRsp</t>
-  </si>
-  <si>
-    <t>对话信息ID</t>
-  </si>
-  <si>
-    <t>选择的选项ID</t>
-  </si>
-  <si>
-    <t>OpenNGS.Dialog.Data</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>OpenNGS.Dialog</t>
     </r>
     <r>
@@ -331,15 +81,25 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.Data</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialogChoice</t>
+  </si>
+  <si>
+    <t>选项信息</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>OpenNGS.Dialog</t>
     </r>
     <r>
@@ -347,26 +107,270 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.Common</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIALOG_CHOICE_CONDITION_TYPE</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>选择条件</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>DIALOG_TYPE</t>
+  </si>
+  <si>
+    <t>对话类型</t>
   </si>
   <si>
     <t>OpenNGS.Dialog.Service</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadDialogRsp</t>
+  </si>
+  <si>
+    <t>加载对话返回值</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>ChoiceRep</t>
+  </si>
+  <si>
+    <t>选中选项</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>DIALOG_CHOICE_CONDITION_TYPE_NONE</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>无条件</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>DIALOG_CHOICE_CONDITION_TYPE_PLAYER_LEVEL</t>
+  </si>
+  <si>
+    <t>玩家等级</t>
+  </si>
+  <si>
+    <t>DIALOG_CHOICE_CONDITION_TYPE_PLAYER_INVENTORY</t>
+  </si>
+  <si>
+    <t>玩家背包中的物品</t>
+  </si>
+  <si>
+    <t>DIALOG_CHOICE_CONDITION_TYPE_PLAYER_QUEST_PROGRESS</t>
+  </si>
+  <si>
+    <t>玩家任务进度</t>
+  </si>
+  <si>
+    <t>DIALOG_CHOICE_CONDITION_TYPE_TIME_OF_DAY</t>
+  </si>
+  <si>
+    <t>游戏内的时间</t>
+  </si>
+  <si>
+    <t>DIALOG_CHOICE_CONDITION_TYPE_LOCATION</t>
+  </si>
+  <si>
+    <t>玩家所在位置</t>
+  </si>
+  <si>
+    <t>DIALOG_CHOICE_CONDITION_TYPE_PREVIOUS_CHOICE</t>
+  </si>
+  <si>
+    <t>之前的选择</t>
+  </si>
+  <si>
+    <t>DIALOG_TYPE_NORMAL</t>
+  </si>
+  <si>
+    <t>普通对话</t>
+  </si>
+  <si>
+    <t>DIALOG_TYPE_EVENT</t>
+  </si>
+  <si>
+    <t>事件对话</t>
+  </si>
+  <si>
+    <t>DIALOG_TYPE_QUEST</t>
+  </si>
+  <si>
+    <t>任务对话</t>
+  </si>
+  <si>
+    <t>DialogID</t>
+  </si>
+  <si>
+    <t>对话ID</t>
+  </si>
+  <si>
+    <t>DialogTalkIDs</t>
+  </si>
+  <si>
+    <t>uint32[]</t>
+  </si>
+  <si>
+    <t>对话索引</t>
+  </si>
+  <si>
+    <t>DisplayType</t>
+  </si>
+  <si>
+    <t>对话显示类型</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>DialogTalkID</t>
+  </si>
+  <si>
+    <t>对话索引ID</t>
+  </si>
+  <si>
+    <t>NGSText</t>
+  </si>
+  <si>
+    <t>发言人</t>
+  </si>
+  <si>
+    <t>AvatarLeft</t>
+  </si>
+  <si>
+    <t>左头像</t>
+  </si>
+  <si>
+    <t>AvatarRight</t>
+  </si>
+  <si>
+    <t>右头像</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>对话内容</t>
+  </si>
+  <si>
+    <t>IsEnd</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否对话结束</t>
+  </si>
+  <si>
+    <t>ChoiceIDs</t>
+  </si>
+  <si>
+    <t>选项ID</t>
+  </si>
+  <si>
+    <t>ChoiceCount</t>
+  </si>
+  <si>
+    <t>选择数量</t>
+  </si>
+  <si>
+    <t>AudioFiles</t>
+  </si>
+  <si>
+    <t>声音文件</t>
+  </si>
+  <si>
+    <t>DialogChoiceID</t>
+  </si>
+  <si>
+    <t>DialogChoiceContent</t>
+  </si>
+  <si>
+    <t>选项内容</t>
+  </si>
+  <si>
+    <t>NextDialogIndex</t>
+  </si>
+  <si>
+    <t>选项跳转的下一个对话索引</t>
+  </si>
+  <si>
+    <t>QuestGroupID</t>
+  </si>
+  <si>
+    <t>任务组ID</t>
+  </si>
+  <si>
+    <t>IsSelected</t>
+  </si>
+  <si>
+    <t>是否选中</t>
+  </si>
+  <si>
+    <t>SelectChoiceIDs</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>HistoryRsp</t>
+  </si>
+  <si>
+    <t>HistoryList</t>
+  </si>
+  <si>
+    <t>HistoryItemRsp[]</t>
+  </si>
+  <si>
+    <t>HistoryItemRsp</t>
+  </si>
+  <si>
+    <t>对话信息ID</t>
+  </si>
+  <si>
+    <t>选择的选项ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,20 +404,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -422,27 +426,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,12 +579,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor theme="0" tint="-0.349986266670736"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -523,16 +837,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,457 +1119,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="33">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
+        <name val="Times New Roman"/>
         <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1034,15 +1245,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1063,15 +1274,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1092,15 +1304,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1121,16 +1333,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1151,15 +1362,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1180,15 +1391,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1209,30 +1420,373 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <name val="Times New Roman"/>
-        <family val="1"/>
         <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
       <alignment vertical="center"/>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,160 +1794,157 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:H8" totalsRowShown="0">
-  <autoFilter ref="A1:H8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:H8" totalsRowShown="0">
+  <autoFilter ref="A1:H8"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Package" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Scope" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PK" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SK" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TableType" dataDxfId="30"/>
+    <tableColumn id="1" name="Package" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="4" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" name="Description" dataDxfId="3"/>
+    <tableColumn id="6" name="Scope" dataDxfId="4"/>
+    <tableColumn id="7" name="PK" dataDxfId="5"/>
+    <tableColumn id="8" name="SK" dataDxfId="6"/>
+    <tableColumn id="9" name="TableType" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ChoiceRep_1011" displayName="ChoiceRep_1011" ref="A15:F18" totalsRowShown="0">
-  <autoFilter ref="A15:F18" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="ChoiceRep_1011" displayName="ChoiceRep_1011" ref="A15:F18" totalsRowShown="0">
+  <autoFilter ref="A15:F18"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="DIALOG_CHOICE_CONDITION_TYPE" displayName="DIALOG_CHOICE_CONDITION_TYPE" ref="A3:F10" totalsRowShown="0">
-  <autoFilter ref="A3:F10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="DIALOG_CHOICE_CONDITION_TYPE" displayName="DIALOG_CHOICE_CONDITION_TYPE" ref="A3:F10" totalsRowShown="0">
+  <autoFilter ref="A3:F10"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tag" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Attributes" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Scope" dataDxfId="24"/>
+    <tableColumn id="1" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" name="Type" dataDxfId="9"/>
+    <tableColumn id="3" name="Description" dataDxfId="10"/>
+    <tableColumn id="4" name="Tag" dataDxfId="11"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="12"/>
+    <tableColumn id="6" name="Scope" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DIALOG_TYPE" displayName="DIALOG_TYPE" ref="A13:F16" totalsRowShown="0">
-  <autoFilter ref="A13:F16" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DIALOG_TYPE" displayName="DIALOG_TYPE" ref="A13:F16" totalsRowShown="0">
+  <autoFilter ref="A13:F16"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Type" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tag" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Attributes" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Scope" dataDxfId="18"/>
+    <tableColumn id="1" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" name="Type" dataDxfId="15"/>
+    <tableColumn id="3" name="Description" dataDxfId="16"/>
+    <tableColumn id="4" name="Tag" dataDxfId="17"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="18"/>
+    <tableColumn id="6" name="Scope" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DialogTalk" displayName="DialogTalk" ref="A12:F21" totalsRowShown="0">
-  <autoFilter ref="A12:F21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DialogTalk" displayName="DialogTalk" ref="A12:F21" totalsRowShown="0">
+  <autoFilter ref="A12:F21"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="DialogChoice" displayName="DialogChoice" ref="A24:F29" totalsRowShown="0">
-  <autoFilter ref="A24:F29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DialogChoice" displayName="DialogChoice" ref="A24:F29" totalsRowShown="0">
+  <autoFilter ref="A24:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="DialogList" displayName="DialogList" ref="A3:F8" totalsRowShown="0">
-  <autoFilter ref="A3:F8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="DialogList" displayName="DialogList" ref="A3:F8" totalsRowShown="0">
+  <autoFilter ref="A3:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="LoadDialogRsp" displayName="LoadDialogRsp" ref="A2:F3" totalsRowShown="0">
-  <autoFilter ref="A2:F3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="LoadDialogRsp" displayName="LoadDialogRsp" ref="A2:F3" totalsRowShown="0">
+  <autoFilter ref="A2:F3"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Name" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Type" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tag" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Attributes" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Scope" dataDxfId="12"/>
+    <tableColumn id="1" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" name="Type" dataDxfId="22"/>
+    <tableColumn id="3" name="Description" dataDxfId="23"/>
+    <tableColumn id="4" name="Tag" dataDxfId="24"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="25"/>
+    <tableColumn id="6" name="Scope" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="ChoiceRep" displayName="ChoiceRep" ref="A6:F7" totalsRowShown="0">
-  <autoFilter ref="A6:F7" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ChoiceRep" displayName="ChoiceRep" ref="A6:F7" totalsRowShown="0">
+  <autoFilter ref="A6:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Type" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tag" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Attributes" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Scope" dataDxfId="6"/>
+    <tableColumn id="1" name="Name" dataDxfId="27"/>
+    <tableColumn id="2" name="Type" dataDxfId="28"/>
+    <tableColumn id="3" name="Description" dataDxfId="29"/>
+    <tableColumn id="4" name="Tag" dataDxfId="30"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="31"/>
+    <tableColumn id="6" name="Scope" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ChoiceRep_10" displayName="ChoiceRep_10" ref="A11:F12" totalsRowShown="0">
-  <autoFilter ref="A11:F12" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ChoiceRep_10" displayName="ChoiceRep_10" ref="A11:F12" totalsRowShown="0">
+  <autoFilter ref="A11:F12"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1651,31 +2202,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="27.08203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="27.0833333333333" style="10" customWidth="1"/>
     <col min="2" max="2" width="29.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.5833333333333" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="10" customWidth="1"/>
-    <col min="6" max="7" width="8.9140625" style="10" customWidth="1"/>
+    <col min="6" max="7" width="8.91666666666667" style="10" customWidth="1"/>
     <col min="8" max="8" width="13" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="8.9140625" style="10"/>
+    <col min="9" max="16384" width="8.91666666666667" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1701,164 +2252,164 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="E2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="3" ht="16.5" spans="1:8">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:8">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="15" t="s">
+    </row>
+    <row r="6" ht="16.5" spans="1:8">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>20</v>
+      <c r="C7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1866,30 +2417,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="46.9140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7.4140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.4140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="10" customWidth="1"/>
-    <col min="7" max="9" width="8.9140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="46.9166666666667" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.58333333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.6666666666667" style="10" customWidth="1"/>
+    <col min="4" max="4" width="7.41666666666667" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.4166666666667" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" style="10" customWidth="1"/>
+    <col min="7" max="9" width="8.91666666666667" style="10" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="10" customWidth="1"/>
-    <col min="11" max="11" width="8.9140625" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="8.9140625" style="10"/>
+    <col min="11" max="11" width="8.91666666666667" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="8.91666666666667" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1899,7 +2451,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1910,10 +2462,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -1921,147 +2473,147 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" ht="14.25" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" ht="14.25" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" ht="14.25" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" ht="14.25" spans="1:8">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -2071,9 +2623,9 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" ht="14.25" spans="1:8">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -2083,7 +2635,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" ht="14.25" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -2094,10 +2646,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>4</v>
@@ -2105,78 +2657,78 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" ht="14.25" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" ht="14.25" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" ht="14.25" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -2185,26 +2737,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="32.58203125" customWidth="1"/>
-    <col min="3" max="3" width="25.08203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="25.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2212,7 +2765,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2223,109 +2776,109 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8">
         <v>5</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2333,7 +2886,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2341,9 +2894,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2351,7 +2904,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -2362,180 +2915,180 @@
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2">
         <v>6</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2">
         <v>7</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2">
         <v>8</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2">
         <v>9</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2543,9 +3096,9 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2553,7 +3106,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -2564,120 +3117,120 @@
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D21">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D29">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -2687,25 +3240,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.4140625" customWidth="1"/>
+    <col min="1" max="1" width="14.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="12.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2713,7 +3267,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2724,36 +3278,36 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2761,9 +3315,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2771,7 +3325,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2782,38 +3336,38 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2821,7 +3375,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2832,38 +3386,38 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2871,7 +3425,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2882,72 +3436,72 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/Data/Entities/OpenNGS/OpenNGS.Dialog.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Dialog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="4" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="OpenNGS.Dialog.Data" sheetId="2" r:id="rId3"/>
     <sheet name="OpenNGS.Dialog.Service" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="126">
   <si>
     <t>Package</t>
   </si>
@@ -335,6 +335,78 @@
     <t>是否选中</t>
   </si>
   <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>效果数据</t>
+  </si>
+  <si>
+    <t>DialogEffect</t>
+  </si>
+  <si>
+    <t>EffectID</t>
+  </si>
+  <si>
+    <t>效果ID</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>接口类型</t>
+  </si>
+  <si>
+    <t>DescInfo</t>
+  </si>
+  <si>
+    <t>描述信息</t>
+  </si>
+  <si>
+    <t>DescID</t>
+  </si>
+  <si>
+    <t>描述ID</t>
+  </si>
+  <si>
+    <t>Param1Type</t>
+  </si>
+  <si>
+    <t>参数类型1</t>
+  </si>
+  <si>
+    <t>Param1</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>Param1b</t>
+  </si>
+  <si>
+    <t>参数附加1</t>
+  </si>
+  <si>
+    <t>Param2Type</t>
+  </si>
+  <si>
+    <t>参数类型2</t>
+  </si>
+  <si>
+    <t>Param2</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>Param2b</t>
+  </si>
+  <si>
+    <t>参数附加2</t>
+  </si>
+  <si>
     <t>SelectChoiceIDs</t>
   </si>
   <si>
@@ -370,7 +442,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,12 +483,6 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -941,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,33 +1019,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,101 +1058,98 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1119,9 +1185,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1131,7 +1194,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1816,6 +1879,21 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ChoiceRep_10" displayName="ChoiceRep_10" ref="A11:F12" totalsRowShown="0">
+  <autoFilter ref="A11:F12"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="ChoiceRep_1011" displayName="ChoiceRep_1011" ref="A15:F18" totalsRowShown="0">
   <autoFilter ref="A15:F18"/>
   <tableColumns count="6">
@@ -1876,8 +1954,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DialogChoice" displayName="DialogChoice" ref="A24:F29" totalsRowShown="0">
-  <autoFilter ref="A24:F29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DialogChoice" displayName="DialogChoice" ref="A24:F30" totalsRowShown="0">
+  <autoFilter ref="A24:F30"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -1906,6 +1984,21 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="DialogEffect" displayName="DialogEffect" ref="A34:F44" totalsRowShown="0">
+  <autoFilter ref="A34:F44"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="LoadDialogRsp" displayName="LoadDialogRsp" ref="A2:F3" totalsRowShown="0">
   <autoFilter ref="A2:F3"/>
   <tableColumns count="6">
@@ -1920,7 +2013,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ChoiceRep" displayName="ChoiceRep" ref="A6:F7" totalsRowShown="0">
   <autoFilter ref="A6:F7"/>
   <tableColumns count="6">
@@ -1930,21 +2023,6 @@
     <tableColumn id="4" name="Tag" dataDxfId="30"/>
     <tableColumn id="5" name="Attributes" dataDxfId="31"/>
     <tableColumn id="6" name="Scope" dataDxfId="32"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ChoiceRep_10" displayName="ChoiceRep_10" ref="A11:F12" totalsRowShown="0">
-  <autoFilter ref="A11:F12"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Tag"/>
-    <tableColumn id="5" name="Attributes"/>
-    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2210,8 +2288,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2256,21 +2334,21 @@
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2278,21 +2356,21 @@
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="E3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2300,21 +2378,21 @@
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2322,21 +2400,21 @@
       <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2344,65 +2422,65 @@
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2422,7 +2500,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -2739,10 +2817,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J29"/>
+  <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3215,6 +3293,221 @@
         <v>12</v>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D8">
     <cfRule type="duplicateValues" dxfId="20" priority="3"/>
@@ -3225,16 +3518,17 @@
   <conditionalFormatting sqref="D13:D21">
     <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D29">
+  <conditionalFormatting sqref="D25:D30">
     <cfRule type="duplicateValues" dxfId="20" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3347,13 +3641,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -3367,7 +3661,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3397,13 +3691,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -3417,7 +3711,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3473,7 +3767,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -3484,13 +3778,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>

--- a/Data/Entities/OpenNGS/OpenNGS.Dialog.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Dialog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
   <si>
     <t>Package</t>
   </si>
@@ -149,6 +149,15 @@
     <t>选中选项</t>
   </si>
   <si>
+    <t>DialogEffect</t>
+  </si>
+  <si>
+    <t>对话效果</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
     <t>Tag</t>
   </si>
   <si>
@@ -341,16 +350,10 @@
     <t>效果数据</t>
   </si>
   <si>
-    <t>DialogEffect</t>
-  </si>
-  <si>
     <t>EffectID</t>
   </si>
   <si>
     <t>效果ID</t>
-  </si>
-  <si>
-    <t>Client</t>
   </si>
   <si>
     <t>Function</t>
@@ -442,7 +445,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +485,18 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1007,10 +1022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,37 +1034,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,98 +1067,104 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1195,6 +1210,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1862,8 +1886,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:H8" totalsRowShown="0">
-  <autoFilter ref="A1:H8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Package" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2286,13 +2310,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="27.0833333333333" style="10" customWidth="1"/>
     <col min="2" max="2" width="29.25" style="10" customWidth="1"/>
@@ -2482,6 +2506,28 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:8">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2540,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -2553,19 +2599,19 @@
     </row>
     <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -2575,13 +2621,13 @@
     </row>
     <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2595,13 +2641,13 @@
     </row>
     <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -2615,13 +2661,13 @@
     </row>
     <row r="7" ht="14.25" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -2635,13 +2681,13 @@
     </row>
     <row r="8" ht="14.25" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -2655,13 +2701,13 @@
     </row>
     <row r="9" ht="14.25" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -2674,13 +2720,13 @@
     </row>
     <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -2724,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>4</v>
@@ -2737,19 +2783,19 @@
     </row>
     <row r="14" ht="14.25" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -2759,13 +2805,13 @@
     </row>
     <row r="15" ht="14.25" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2779,13 +2825,13 @@
     </row>
     <row r="16" ht="14.25" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -2819,8 +2865,8 @@
   <sheetPr/>
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2854,10 +2900,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -2865,19 +2911,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -2885,13 +2931,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -2903,13 +2949,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -2924,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -2939,13 +2985,13 @@
     </row>
     <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8">
         <v>5</v>
@@ -2993,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>4</v>
@@ -3004,19 +3050,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -3027,10 +3073,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -3042,13 +3088,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -3060,13 +3106,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
@@ -3078,13 +3124,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -3096,13 +3142,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2">
         <v>6</v>
@@ -3114,13 +3160,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2">
         <v>7</v>
@@ -3132,13 +3178,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>8</v>
@@ -3150,13 +3196,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2">
         <v>9</v>
@@ -3195,10 +3241,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>4</v>
@@ -3206,19 +3252,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
@@ -3226,13 +3272,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
@@ -3244,13 +3290,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -3261,13 +3307,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
@@ -3278,13 +3324,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
@@ -3295,13 +3341,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -3312,7 +3358,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3326,10 +3372,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>4</v>
@@ -3337,175 +3383,175 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41">
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3572,10 +3618,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -3583,19 +3629,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -3630,10 +3676,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -3641,19 +3687,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -3661,7 +3707,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3680,10 +3726,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
@@ -3691,19 +3737,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -3711,7 +3757,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3730,10 +3776,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>4</v>
@@ -3741,19 +3787,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -3761,13 +3807,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -3778,13 +3824,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
